--- a/data/trans_orig/P04A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6141</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2274</v>
+        <v>2146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12742</v>
+        <v>12737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005951906711963276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002204133450687326</v>
+        <v>0.002079906257951465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01235010565972353</v>
+        <v>0.01234544645814103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2672</v>
+        <v>2320</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13585</v>
+        <v>12245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004656988244663662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002031984650618195</v>
+        <v>0.001763922991347823</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01032955151369979</v>
+        <v>0.009311349807058351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>12265</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6515</v>
+        <v>6527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20585</v>
+        <v>21311</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005226264180090773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00277587844216864</v>
+        <v>0.002781108770546112</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008771349499319663</v>
+        <v>0.009080655190091725</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7282</v>
+        <v>8041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23753</v>
+        <v>24003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01335105337936993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007058220428414629</v>
+        <v>0.007794000327336995</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02302287534837132</v>
+        <v>0.02326469048152805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>6966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2244</v>
+        <v>2901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14480</v>
+        <v>15235</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005296822122910215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001706410315277007</v>
+        <v>0.002206000185815997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01101029581559185</v>
+        <v>0.01158436280326368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -857,19 +857,19 @@
         <v>20741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13206</v>
+        <v>12420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32647</v>
+        <v>31991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008837647393731305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005626954988291681</v>
+        <v>0.005292393851705764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01391105848807987</v>
+        <v>0.01363153714881343</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>7880</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3507</v>
+        <v>3600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15059</v>
+        <v>16055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007638114690833598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003398799170038621</v>
+        <v>0.003488874379290364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01459606994678702</v>
+        <v>0.01556096000225769</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>3013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8102</v>
+        <v>9854</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002291353697624069</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0007080539594880536</v>
+        <v>0.0007112542323040657</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.006160469053687964</v>
+        <v>0.007493014629958904</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -928,19 +928,19 @@
         <v>10894</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5632</v>
+        <v>5526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18766</v>
+        <v>19718</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004641912781287433</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00239988629923936</v>
+        <v>0.002354758810974451</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007996488049901053</v>
+        <v>0.00840204396479414</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>113594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92792</v>
+        <v>92714</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139387</v>
+        <v>136687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1101015761885401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08993915807775366</v>
+        <v>0.08986312455352923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1351009382519846</v>
+        <v>0.1324838625095053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -978,19 +978,19 @@
         <v>85347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66823</v>
+        <v>68013</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105147</v>
+        <v>106494</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0648974416588198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05081195258864589</v>
+        <v>0.05171653295146855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07995298513563193</v>
+        <v>0.08097743924368565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -999,19 +999,19 @@
         <v>198942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>172068</v>
+        <v>172433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>231850</v>
+        <v>231640</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08477021868642967</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07331936228107237</v>
+        <v>0.07347489831865062</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0987927864727645</v>
+        <v>0.09870313596168027</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>890333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>863788</v>
+        <v>862254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>912843</v>
+        <v>911585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.862957349029293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8372284090284192</v>
+        <v>0.8357419944551255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.884775412664162</v>
+        <v>0.8835558533782334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1201</v>
@@ -1049,19 +1049,19 @@
         <v>1213662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1193819</v>
+        <v>1192135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1234231</v>
+        <v>1232529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9228573942759822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9077692967014803</v>
+        <v>0.9064885038933145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9384977104906874</v>
+        <v>0.9372039415755152</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2114</v>
@@ -1070,19 +1070,19 @@
         <v>2103994</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2070497</v>
+        <v>2068790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2135354</v>
+        <v>2130607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8965239569584608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8822506332143968</v>
+        <v>0.8815236171253062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9098866931528085</v>
+        <v>0.9078640785875491</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>7012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3082</v>
+        <v>3049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14199</v>
+        <v>14063</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004140487935065669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00181978176251992</v>
+        <v>0.001800581530646491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008384865679332843</v>
+        <v>0.008304420023964063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1195,19 +1195,19 @@
         <v>6960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2969</v>
+        <v>2930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14400</v>
+        <v>13492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004383980768050123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001869741570069791</v>
+        <v>0.0018455227943956</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009070005331058026</v>
+        <v>0.008497810396005515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1216,19 +1216,19 @@
         <v>13972</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7765</v>
+        <v>7973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22223</v>
+        <v>22778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00425831083131735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002366743885840543</v>
+        <v>0.002429892091024139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006772990710406452</v>
+        <v>0.006942231672457022</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>11167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5638</v>
+        <v>5889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19733</v>
+        <v>20010</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006594180713047842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003329588921308735</v>
+        <v>0.003477876953111676</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01165272995222899</v>
+        <v>0.01181629944990073</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1266,19 +1266,19 @@
         <v>5585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1988</v>
+        <v>2140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11393</v>
+        <v>11697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003517470863873035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001252346070390245</v>
+        <v>0.001347811975577858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.007175677727440725</v>
+        <v>0.007367359643125911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1287,19 +1287,19 @@
         <v>16751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9552</v>
+        <v>10328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26019</v>
+        <v>27074</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005105402333361431</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002911382786463136</v>
+        <v>0.003147665234056133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007929911457659177</v>
+        <v>0.00825140807632402</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>5790</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1923</v>
+        <v>1975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12588</v>
+        <v>12567</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003418888090975231</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00113531555513822</v>
+        <v>0.001166139828759303</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.007433578990954515</v>
+        <v>0.007421270177244987</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1337,19 +1337,19 @@
         <v>10380</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5192</v>
+        <v>5052</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20444</v>
+        <v>20506</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006537754296153716</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003269901680286581</v>
+        <v>0.003181991798643111</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01287671953692948</v>
+        <v>0.01291602654443367</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -1358,19 +1358,19 @@
         <v>16169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9356</v>
+        <v>9166</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26025</v>
+        <v>27095</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004928065362484826</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002851535474673069</v>
+        <v>0.002793656153699124</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007931879638814098</v>
+        <v>0.008257940934036688</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>213199</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184683</v>
+        <v>185009</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244847</v>
+        <v>245530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.125899141830633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.109059708627081</v>
+        <v>0.1092519735025172</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1445877903764922</v>
+        <v>0.1449912401781728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>168</v>
@@ -1408,19 +1408,19 @@
         <v>192222</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167976</v>
+        <v>165432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223785</v>
+        <v>221112</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.121071410940032</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1058000208304407</v>
+        <v>0.1041978533087208</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1409517727335672</v>
+        <v>0.1392682546587915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>351</v>
@@ -1429,19 +1429,19 @@
         <v>405421</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>368514</v>
+        <v>368541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>451832</v>
+        <v>450235</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1235630679968268</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1123145603144637</v>
+        <v>0.1123229447038927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1377081428877542</v>
+        <v>0.1372212302880832</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>1456246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1423789</v>
+        <v>1423068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1485191</v>
+        <v>1484834</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8599473014302783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8407809859067792</v>
+        <v>0.8403550407313169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8770403177439937</v>
+        <v>0.8768293567347815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1364</v>
@@ -1479,19 +1479,19 @@
         <v>1372526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1342032</v>
+        <v>1342951</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1399804</v>
+        <v>1400111</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8644893831318912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8452820898278007</v>
+        <v>0.8458611977137539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8816704871723059</v>
+        <v>0.8818633608439606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2806</v>
@@ -1500,19 +1500,19 @@
         <v>2828772</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2783150</v>
+        <v>2782956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2867790</v>
+        <v>2869171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8621451534760096</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8482405979901756</v>
+        <v>0.8481814663819024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8740367005678823</v>
+        <v>0.8744576646231755</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6786</v>
+        <v>7253</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003596605821553508</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01230638533943108</v>
+        <v>0.01315311151458183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>3742</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10443</v>
+        <v>10618</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007854381273805859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002050222936263486</v>
+        <v>0.002040763179913821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02192025541404488</v>
+        <v>0.02228780267141301</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1646,19 +1646,19 @@
         <v>5725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1990</v>
+        <v>2046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12653</v>
+        <v>13253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005570156264024601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001936310385398231</v>
+        <v>0.001990455480747512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01231081738425413</v>
+        <v>0.0128939650886885</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>2989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8132</v>
+        <v>8753</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005420327229246969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001659912673113569</v>
+        <v>0.001651575476031926</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01474687937208083</v>
+        <v>0.01587301902603975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5098</v>
+        <v>5642</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001895899002328277</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01070119262244465</v>
+        <v>0.01184168269672098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1717,19 +1717,19 @@
         <v>3892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8824</v>
+        <v>9623</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003786695544181594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0008898089158604898</v>
+        <v>0.0008917339556837196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008585248148167945</v>
+        <v>0.009362200205148774</v>
       </c>
     </row>
     <row r="18">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8730</v>
+        <v>6992</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003122536284530354</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01583177538623843</v>
+        <v>0.01267946916809847</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5116</v>
+        <v>5091</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002124512232540819</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01073909148042361</v>
+        <v>0.01068656318709626</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9126</v>
+        <v>9643</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002659935372037705</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008878589490523918</v>
+        <v>0.009382236983302671</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>68935</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54062</v>
+        <v>53111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88416</v>
+        <v>86280</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.125015988823413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09804296066169969</v>
+        <v>0.09631871420046696</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1603466564390979</v>
+        <v>0.1564725712939018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1838,19 +1838,19 @@
         <v>70836</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57240</v>
+        <v>55916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89908</v>
+        <v>86716</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1486864569859593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.120147773653524</v>
+        <v>0.1173694938567181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1887189258064686</v>
+        <v>0.1820183381828434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -1859,19 +1859,19 @@
         <v>139771</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118540</v>
+        <v>117243</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>164853</v>
+        <v>164511</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1359876484234934</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1153319427390801</v>
+        <v>0.1140695621010165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1603910011344262</v>
+        <v>0.1600577963637422</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>475779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>456917</v>
+        <v>456304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>491128</v>
+        <v>491797</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8628445418412561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8286366959375772</v>
+        <v>0.8275248243805556</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8906794891659116</v>
+        <v>0.8918939594859352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>384</v>
@@ -1909,19 +1909,19 @@
         <v>399919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>381053</v>
+        <v>384206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>413861</v>
+        <v>415906</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8394387505053658</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.799839340070821</v>
+        <v>0.8064567864666247</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8687031928428318</v>
+        <v>0.8729968510287197</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>845</v>
@@ -1930,19 +1930,19 @@
         <v>875698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>850087</v>
+        <v>849886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>897135</v>
+        <v>898790</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8519955643962627</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8270775593858274</v>
+        <v>0.8268818163836972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8728524697496062</v>
+        <v>0.8744624320545192</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>15135</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8860</v>
+        <v>9005</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24608</v>
+        <v>24733</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004619340509290058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00270405320047719</v>
+        <v>0.002748343256867982</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007510287032535694</v>
+        <v>0.007548370937561344</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -2055,19 +2055,19 @@
         <v>16827</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9176</v>
+        <v>10132</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28116</v>
+        <v>27672</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004979499332549223</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002715297085132875</v>
+        <v>0.002998233411121078</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008320277775867047</v>
+        <v>0.008188781996447283</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2076,19 +2076,19 @@
         <v>31962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22784</v>
+        <v>22220</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44997</v>
+        <v>45691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004802197353311513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003423230178256833</v>
+        <v>0.003338446055306611</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006760564816695119</v>
+        <v>0.006864957904129547</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>27930</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18992</v>
+        <v>17822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40313</v>
+        <v>39262</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008524247577108618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005796504031634685</v>
+        <v>0.005439356069996203</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.012303635737908</v>
+        <v>0.01198285570512145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2126,19 +2126,19 @@
         <v>13454</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7547</v>
+        <v>7374</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23673</v>
+        <v>23061</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003981341857051107</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002233512459744685</v>
+        <v>0.002182246489381799</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.007005466452248253</v>
+        <v>0.006824341822401269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>40</v>
@@ -2147,19 +2147,19 @@
         <v>41384</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30347</v>
+        <v>30653</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>55276</v>
+        <v>55881</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006217761246607228</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004559499373585078</v>
+        <v>0.004605545127465441</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.00830496602029538</v>
+        <v>0.008395953977623905</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>15392</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8153</v>
+        <v>8358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24629</v>
+        <v>25211</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004697571530611167</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002488269206929398</v>
+        <v>0.002550850334892301</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.007516735210079955</v>
+        <v>0.007694331398129904</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2197,19 +2197,19 @@
         <v>14405</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7959</v>
+        <v>7860</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24913</v>
+        <v>25417</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00426294931785279</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002355272982369692</v>
+        <v>0.002326044489686253</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.007372327321500633</v>
+        <v>0.007521547484283776</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -2218,19 +2218,19 @@
         <v>29797</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20117</v>
+        <v>19960</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42718</v>
+        <v>42240</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.00447690875343014</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003022572594222518</v>
+        <v>0.002998891560133062</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.006418220035474349</v>
+        <v>0.006346457535051174</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>395728</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>356616</v>
+        <v>360125</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>435327</v>
+        <v>437719</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1207761554720217</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1088389788644158</v>
+        <v>0.1099100877291272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.132861784570967</v>
+        <v>0.1335917404178344</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>306</v>
@@ -2268,19 +2268,19 @@
         <v>348405</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>315519</v>
+        <v>310517</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>390988</v>
+        <v>387199</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1031029523099967</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09337111845965353</v>
+        <v>0.09189088021507495</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1157045511477842</v>
+        <v>0.1145832022422354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>647</v>
@@ -2289,19 +2289,19 @@
         <v>744134</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>693752</v>
+        <v>693077</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>796587</v>
+        <v>797683</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1118032636663629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1042336481635102</v>
+        <v>0.10413216736405</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1196842062889564</v>
+        <v>0.1198488418124087</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>2822357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2779624</v>
+        <v>2777172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2860309</v>
+        <v>2859109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8613826849109685</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.848340597214342</v>
+        <v>0.8475921546070919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8729656236920722</v>
+        <v>0.8725991744845083</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2949</v>
@@ -2339,19 +2339,19 @@
         <v>2986106</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2943977</v>
+        <v>2941924</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3024624</v>
+        <v>3025176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8836732571825502</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8712062063721812</v>
+        <v>0.8705986662967968</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8950719257466931</v>
+        <v>0.8952351209178014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5765</v>
@@ -2360,19 +2360,19 @@
         <v>5808464</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5751108</v>
+        <v>5751544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5862433</v>
+        <v>5863789</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8726998689802882</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.864082266563435</v>
+        <v>0.8641477429144888</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8808084327611279</v>
+        <v>0.8810121936423789</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>12187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6088</v>
+        <v>6216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21035</v>
+        <v>21413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01252936248208101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006258868097827778</v>
+        <v>0.006390523299701845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02162624338951538</v>
+        <v>0.02201502403319508</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2724,19 +2724,19 @@
         <v>14897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8211</v>
+        <v>8290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25292</v>
+        <v>25093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01114383734747855</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006142054190376786</v>
+        <v>0.006201239127714459</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01892011213014526</v>
+        <v>0.01877080285632132</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2745,19 +2745,19 @@
         <v>27084</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17622</v>
+        <v>17489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40220</v>
+        <v>39941</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01172736849379455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00763026224340269</v>
+        <v>0.00757260925008625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01741525308576609</v>
+        <v>0.01729460674381412</v>
       </c>
     </row>
     <row r="5">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7252</v>
+        <v>7171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002117843059183838</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.007455385478402891</v>
+        <v>0.007372548591440104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5896</v>
+        <v>6762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001434159376393185</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.004410319898115012</v>
+        <v>0.005058614603240438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -2816,19 +2816,19 @@
         <v>3977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10226</v>
+        <v>9926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001722101264398586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0004455547455699479</v>
+        <v>0.0004452787586309206</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004427873556150025</v>
+        <v>0.004298117558728053</v>
       </c>
     </row>
     <row r="6">
@@ -2892,19 +2892,19 @@
         <v>87504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70491</v>
+        <v>70186</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109556</v>
+        <v>107974</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08996442466886354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07247324436359363</v>
+        <v>0.07215875236914798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1126362881286714</v>
+        <v>0.1110091314075717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -2913,19 +2913,19 @@
         <v>109727</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92088</v>
+        <v>90997</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132671</v>
+        <v>131958</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08208185712840216</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06888678796922189</v>
+        <v>0.06807091440135853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0992454171701378</v>
+        <v>0.09871221746204512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -2934,19 +2934,19 @@
         <v>197231</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>170939</v>
+        <v>170568</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>227539</v>
+        <v>228882</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08540169850689756</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07401690560536869</v>
+        <v>0.07385637248866375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09852507074648434</v>
+        <v>0.09910664762115026</v>
       </c>
     </row>
     <row r="8">
@@ -2963,19 +2963,19 @@
         <v>870904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>845898</v>
+        <v>849103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>888869</v>
+        <v>889759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8953883697898716</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.869679436382424</v>
+        <v>0.8729741777714422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9138581591484397</v>
+        <v>0.9147737827914427</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1132</v>
@@ -2984,19 +2984,19 @@
         <v>1210258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1187537</v>
+        <v>1185694</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1229928</v>
+        <v>1230865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9053401461477261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8883440697559556</v>
+        <v>0.8869647439734568</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9200549096473134</v>
+        <v>0.9207551484162146</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1946</v>
@@ -3005,19 +3005,19 @@
         <v>2081162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2047729</v>
+        <v>2049516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2107735</v>
+        <v>2110177</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9011488317349093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8866723799772355</v>
+        <v>0.8874462916539074</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9126550130080632</v>
+        <v>0.9137123032598289</v>
       </c>
     </row>
     <row r="9">
@@ -3109,19 +3109,19 @@
         <v>24612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16022</v>
+        <v>16299</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36379</v>
+        <v>36533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01253769995786153</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008161893014683166</v>
+        <v>0.00830300387231153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01853165091088622</v>
+        <v>0.01861004433225191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3130,19 +3130,19 @@
         <v>20482</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13166</v>
+        <v>13133</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32395</v>
+        <v>31109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01166758638112789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007500044352555787</v>
+        <v>0.007481070153294618</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01845366445570156</v>
+        <v>0.01772072562368724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3151,19 +3151,19 @@
         <v>45095</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33346</v>
+        <v>33333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61307</v>
+        <v>60467</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01212692843107065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008967495534128705</v>
+        <v>0.008963913954525967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01648678570849741</v>
+        <v>0.01626097638194491</v>
       </c>
     </row>
     <row r="11">
@@ -3180,19 +3180,19 @@
         <v>5731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1900</v>
+        <v>1942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11484</v>
+        <v>11528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002919273433929245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0009678211581147453</v>
+        <v>0.0009894502393909396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.005849815067074627</v>
+        <v>0.005872404214653785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3201,19 +3201,19 @@
         <v>5039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13403</v>
+        <v>13684</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002870698629713234</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0006398819981463583</v>
+        <v>0.000640526955390512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.007635114834050862</v>
+        <v>0.007795095138785327</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -3222,19 +3222,19 @@
         <v>10770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5825</v>
+        <v>5764</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20765</v>
+        <v>20627</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002896341776471052</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001566364096714335</v>
+        <v>0.001550127048339966</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0055840557325146</v>
+        <v>0.00554698757014958</v>
       </c>
     </row>
     <row r="12">
@@ -3298,19 +3298,19 @@
         <v>277393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>246504</v>
+        <v>246564</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309468</v>
+        <v>313505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1413063312126291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1255712658520581</v>
+        <v>0.1256017677030528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1576458487934411</v>
+        <v>0.1597021200739074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -3319,19 +3319,19 @@
         <v>249523</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219978</v>
+        <v>219402</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>279232</v>
+        <v>283371</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1421387098045838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1253085111027264</v>
+        <v>0.1249804914991455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1590624521931494</v>
+        <v>0.1614202291075774</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -3340,19 +3340,19 @@
         <v>526916</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>483588</v>
+        <v>481652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>570940</v>
+        <v>573812</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1416992884474407</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1300474196439017</v>
+        <v>0.129526781821406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1535383914224245</v>
+        <v>0.1543107757655078</v>
       </c>
     </row>
     <row r="14">
@@ -3369,19 +3369,19 @@
         <v>1655324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1620367</v>
+        <v>1619105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1689278</v>
+        <v>1687772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8432366953955801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.825429071069782</v>
+        <v>0.8247863222578909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8605331041450107</v>
+        <v>0.8597656350926189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1386</v>
@@ -3390,19 +3390,19 @@
         <v>1480443</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1449401</v>
+        <v>1444140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1511661</v>
+        <v>1508665</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.843323005184575</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8256398507038966</v>
+        <v>0.822643221210721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8611057386160821</v>
+        <v>0.859398987138392</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2967</v>
@@ -3411,19 +3411,19 @@
         <v>3135768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3090535</v>
+        <v>3088445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3182313</v>
+        <v>3181639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8432774413450176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8311134634988372</v>
+        <v>0.8305513834551517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8557945207604282</v>
+        <v>0.8556132307919783</v>
       </c>
     </row>
     <row r="15">
@@ -3515,19 +3515,19 @@
         <v>7227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2753</v>
+        <v>3548</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13602</v>
+        <v>13908</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01504694126241499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005732232792700441</v>
+        <v>0.007387168765211583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02831941995609531</v>
+        <v>0.02895664664657505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3536,19 +3536,19 @@
         <v>6114</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2087</v>
+        <v>2919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12228</v>
+        <v>12488</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01333099550013497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00454954743013652</v>
+        <v>0.006364318373704791</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.026662435150037</v>
+        <v>0.02722924894873891</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3557,19 +3557,19 @@
         <v>13341</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7975</v>
+        <v>7548</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21663</v>
+        <v>20481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01420877107362266</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008493545851180952</v>
+        <v>0.008038808152291499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0230714889391278</v>
+        <v>0.02181307268323155</v>
       </c>
     </row>
     <row r="17">
@@ -3680,19 +3680,19 @@
         <v>82947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65786</v>
+        <v>65792</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101791</v>
+        <v>101697</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1726965959954392</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1369687319498261</v>
+        <v>0.1369799219188526</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2119318269644885</v>
+        <v>0.2117356038354855</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -3701,19 +3701,19 @@
         <v>82554</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66087</v>
+        <v>66827</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100507</v>
+        <v>102593</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1800005416882326</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1440972007884384</v>
+        <v>0.1457103783350379</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2191458900013946</v>
+        <v>0.2236932820239756</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -3722,19 +3722,19 @@
         <v>165500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141109</v>
+        <v>140554</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190545</v>
+        <v>193867</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1762642784215569</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1502867234891592</v>
+        <v>0.1496952338628702</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2029380707828375</v>
+        <v>0.2064762536183436</v>
       </c>
     </row>
     <row r="20">
@@ -3751,19 +3751,19 @@
         <v>390128</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>371547</v>
+        <v>370987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>408509</v>
+        <v>407480</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8122564627421458</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7735687587087607</v>
+        <v>0.7724030016022204</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8505261835520087</v>
+        <v>0.8483822651768794</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>333</v>
@@ -3772,19 +3772,19 @@
         <v>369963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>350987</v>
+        <v>349907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>386221</v>
+        <v>386565</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8066684628116324</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7652922046196894</v>
+        <v>0.7629368733347813</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8421172613381911</v>
+        <v>0.8428662248441374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>691</v>
@@ -3793,19 +3793,19 @@
         <v>760092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>736486</v>
+        <v>730329</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>783895</v>
+        <v>784559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8095269505048204</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7843857276333571</v>
+        <v>0.7778283473112857</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8348782788444444</v>
+        <v>0.8355861755186085</v>
       </c>
     </row>
     <row r="21">
@@ -3897,19 +3897,19 @@
         <v>44026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32386</v>
+        <v>32237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60450</v>
+        <v>59244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0128881328498302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00948060055275431</v>
+        <v>0.009437023700030219</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01769593261215721</v>
+        <v>0.01734304388780646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -3918,19 +3918,19 @@
         <v>41493</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29707</v>
+        <v>30284</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56500</v>
+        <v>55397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01168525617584128</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008365990084279492</v>
+        <v>0.008528368585267407</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01591143605824349</v>
+        <v>0.01560063370891567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -3939,19 +3939,19 @@
         <v>85519</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69089</v>
+        <v>67881</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105424</v>
+        <v>105993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01227504897653744</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009916708968198537</v>
+        <v>0.0097432563352946</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01513198658614137</v>
+        <v>0.01521365188891688</v>
       </c>
     </row>
     <row r="23">
@@ -3968,19 +3968,19 @@
         <v>7791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2975</v>
+        <v>3863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14663</v>
+        <v>14721</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002280620620920875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0008708822272935203</v>
+        <v>0.001130800645034105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.004292346723116686</v>
+        <v>0.004309449833735268</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -3989,19 +3989,19 @@
         <v>6957</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2978</v>
+        <v>2156</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15179</v>
+        <v>15896</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001959115766730971</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0008385365109998174</v>
+        <v>0.0006071393107119957</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.004274593182873203</v>
+        <v>0.004476610672160122</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -4010,19 +4010,19 @@
         <v>14747</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8120</v>
+        <v>8222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24461</v>
+        <v>25227</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002116755575109049</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001165458734115417</v>
+        <v>0.001180164714516448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.00351108095476839</v>
+        <v>0.003620945151870482</v>
       </c>
     </row>
     <row r="24">
@@ -4086,19 +4086,19 @@
         <v>447844</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>407194</v>
+        <v>409282</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>494792</v>
+        <v>494746</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1311011269635135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1192012386454515</v>
+        <v>0.1198124582701021</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1448445246001827</v>
+        <v>0.1448311959946441</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>396</v>
@@ -4107,19 +4107,19 @@
         <v>441804</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>402644</v>
+        <v>397125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>485557</v>
+        <v>480632</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1244195376034062</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1133914067258573</v>
+        <v>0.1118372825581502</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1367412903625718</v>
+        <v>0.1353541792234905</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>791</v>
@@ -4128,19 +4128,19 @@
         <v>889647</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>829439</v>
+        <v>830972</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>948353</v>
+        <v>951911</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1276956451105301</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1190535694686652</v>
+        <v>0.1192736015385347</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1361219698358838</v>
+        <v>0.136632602477027</v>
       </c>
     </row>
     <row r="26">
@@ -4157,19 +4157,19 @@
         <v>2916357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2870178</v>
+        <v>2870537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2960668</v>
+        <v>2957215</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8537301195657354</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8402115397802331</v>
+        <v>0.8403166275253021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8667014386307719</v>
+        <v>0.8656907941642101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2851</v>
@@ -4178,19 +4178,19 @@
         <v>3060664</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3015817</v>
+        <v>3019542</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3102832</v>
+        <v>3104720</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8619360904540215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.849306188396204</v>
+        <v>0.85035540113831</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8738112377966739</v>
+        <v>0.8743429470356112</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5604</v>
@@ -4199,19 +4199,19 @@
         <v>5977022</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5912004</v>
+        <v>5914873</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6036805</v>
+        <v>6038091</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8579125503378234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8485802576208292</v>
+        <v>0.8489920706839164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8664934713751109</v>
+        <v>0.8666781186151455</v>
       </c>
     </row>
     <row r="27">
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8791</v>
+        <v>7850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002934158785022266</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01168908980640054</v>
+        <v>0.01043846058589334</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4563,19 +4563,19 @@
         <v>4759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>980</v>
+        <v>1027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11597</v>
+        <v>12110</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004802263523583066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.000988479509201305</v>
+        <v>0.001036767449537843</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01170209769573269</v>
+        <v>0.01221967105519934</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4584,19 +4584,19 @@
         <v>6966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15606</v>
+        <v>13825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003996263872867555</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001651272339819</v>
+        <v>0.001651992476601848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008953250996334785</v>
+        <v>0.007931554716323333</v>
       </c>
     </row>
     <row r="5">
@@ -4613,19 +4613,19 @@
         <v>5054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1890</v>
+        <v>1924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11611</v>
+        <v>11856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006719929100375061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002512773683860761</v>
+        <v>0.002557774906903968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01543941537762061</v>
+        <v>0.01576522927028664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -4634,19 +4634,19 @@
         <v>11573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5325</v>
+        <v>6462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19475</v>
+        <v>21951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01167760443740412</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005372997472141389</v>
+        <v>0.006520687244771547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01965191064450413</v>
+        <v>0.02214986268779739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4655,19 +4655,19 @@
         <v>16626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9996</v>
+        <v>9807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27106</v>
+        <v>26967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009538599858311417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005735020437966192</v>
+        <v>0.005626561573645006</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01555071913246076</v>
+        <v>0.0154713636403025</v>
       </c>
     </row>
     <row r="6">
@@ -4731,19 +4731,19 @@
         <v>78120</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61993</v>
+        <v>60130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97331</v>
+        <v>96265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1038757172017415</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08243233174799526</v>
+        <v>0.07995530233377218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1294206358087722</v>
+        <v>0.1280040779136291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -4752,19 +4752,19 @@
         <v>74395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58278</v>
+        <v>58138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94233</v>
+        <v>92940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07506972626060021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05880701857543093</v>
+        <v>0.05866590233908423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09508788414505956</v>
+        <v>0.09378336032525736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -4773,19 +4773,19 @@
         <v>152514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130841</v>
+        <v>130385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180558</v>
+        <v>178843</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08749816143226039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07506397053226301</v>
+        <v>0.07480216627347225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1035866697412692</v>
+        <v>0.1026029114335222</v>
       </c>
     </row>
     <row r="8">
@@ -4802,19 +4802,19 @@
         <v>666668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>647217</v>
+        <v>648570</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>683322</v>
+        <v>685037</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8864701949128612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8606055763712588</v>
+        <v>0.8624056272284504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9086155287601575</v>
+        <v>0.910895710367824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>803</v>
@@ -4823,19 +4823,19 @@
         <v>900283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>877804</v>
+        <v>878569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>917700</v>
+        <v>918360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9084504057784126</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8857666545546558</v>
+        <v>0.8865390358115303</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9260247406119866</v>
+        <v>0.926690873217327</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1484</v>
@@ -4844,19 +4844,19 @@
         <v>1566952</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1536727</v>
+        <v>1540754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1589775</v>
+        <v>1592591</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8989669748365606</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8816267890243927</v>
+        <v>0.8839372826876574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.912061150841774</v>
+        <v>0.9136766487779779</v>
       </c>
     </row>
     <row r="9">
@@ -4948,19 +4948,19 @@
         <v>9683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4655</v>
+        <v>4505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18027</v>
+        <v>17573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004667442840197564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002243821927847036</v>
+        <v>0.002171859373847089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00869004339795305</v>
+        <v>0.00847120641351721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4969,19 +4969,19 @@
         <v>6153</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2442</v>
+        <v>1868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12197</v>
+        <v>12487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003102228073129985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001231170136737511</v>
+        <v>0.0009419029714282143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006149232871652239</v>
+        <v>0.006295362846319505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4990,19 +4990,19 @@
         <v>15836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9798</v>
+        <v>9808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25946</v>
+        <v>26109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003902391087185313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002414625158385182</v>
+        <v>0.002416883406994592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006393829057126885</v>
+        <v>0.006434166830108412</v>
       </c>
     </row>
     <row r="11">
@@ -5019,19 +5019,19 @@
         <v>10375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5196</v>
+        <v>4860</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20165</v>
+        <v>18816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005001035812665266</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002504839036309174</v>
+        <v>0.002342848504568936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009720556754988712</v>
+        <v>0.009069972610681145</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -5040,19 +5040,19 @@
         <v>17768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10247</v>
+        <v>10738</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27390</v>
+        <v>27761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008957895413874503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005166464427998179</v>
+        <v>0.005413801408290784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01380910971552288</v>
+        <v>0.0139964532793854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -5061,19 +5061,19 @@
         <v>28142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18753</v>
+        <v>18493</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41435</v>
+        <v>41380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006935085016660402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004621371846111238</v>
+        <v>0.00455716290260389</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01021087748256274</v>
+        <v>0.01019721571029441</v>
       </c>
     </row>
     <row r="12">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6867</v>
+        <v>5975</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.000958343308019441</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.003310018975683177</v>
+        <v>0.002880399734334384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5111,19 +5111,19 @@
         <v>6648</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2623</v>
+        <v>3015</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15018</v>
+        <v>14512</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003351834183139483</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001322529407189248</v>
+        <v>0.001520054762682615</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.007571720287075329</v>
+        <v>0.00731636642451351</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -5135,16 +5135,16 @@
         <v>3812</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16430</v>
+        <v>16948</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002128243074081611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0009394290966691089</v>
+        <v>0.0009394886323180773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.004048834026858586</v>
+        <v>0.004176593571537987</v>
       </c>
     </row>
     <row r="13">
@@ -5161,19 +5161,19 @@
         <v>339560</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>307036</v>
+        <v>305365</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>379453</v>
+        <v>374052</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.163684111398224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.148006065330254</v>
+        <v>0.1472005977833415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1829143846710671</v>
+        <v>0.1803106764964911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>293</v>
@@ -5182,19 +5182,19 @@
         <v>305040</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272367</v>
+        <v>272858</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>336848</v>
+        <v>338078</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1537924183707002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1373193621977659</v>
+        <v>0.1375667824934484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1698291609170725</v>
+        <v>0.1704488192555834</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>591</v>
@@ -5203,19 +5203,19 @@
         <v>644600</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>595525</v>
+        <v>600758</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>690155</v>
+        <v>696557</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1588492112617117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1467556133753575</v>
+        <v>0.1480452195828038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1700753424073638</v>
+        <v>0.1716528301888521</v>
       </c>
     </row>
     <row r="14">
@@ -5232,19 +5232,19 @@
         <v>1712879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1672111</v>
+        <v>1678056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1744249</v>
+        <v>1745881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8256890666408937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8060369045984263</v>
+        <v>0.8089027756681387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8408109022967597</v>
+        <v>0.8415975530723476</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1581</v>
@@ -5253,19 +5253,19 @@
         <v>1647846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1612997</v>
+        <v>1617163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1680849</v>
+        <v>1682644</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8307956239591558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.813225709088034</v>
+        <v>0.8153260854631932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8474350128236441</v>
+        <v>0.8483397693451105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3213</v>
@@ -5274,19 +5274,19 @@
         <v>3360724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3312264</v>
+        <v>3305599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3409019</v>
+        <v>3404751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.828185069560361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8162429202269859</v>
+        <v>0.8146005881162208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.840086394239273</v>
+        <v>0.8390345879968801</v>
       </c>
     </row>
     <row r="15">
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4713</v>
+        <v>4724</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001714914913002625</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00864775410799291</v>
+        <v>0.008669754061503526</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5399,19 +5399,19 @@
         <v>2645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7077</v>
+        <v>7191</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004834235931397843</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001487046443258937</v>
+        <v>0.001480522908439895</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01293418607816569</v>
+        <v>0.01314293149520819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5420,19 +5420,19 @@
         <v>3580</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9770</v>
+        <v>8220</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003277762035987482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008509525900112073</v>
+        <v>0.0008254608910415924</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008945827000446617</v>
+        <v>0.007526943959261979</v>
       </c>
     </row>
     <row r="17">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5008</v>
+        <v>5437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001822082254595901</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009189329911410188</v>
+        <v>0.009978019644732824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5003</v>
+        <v>4982</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0009091797374635106</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.004581411204145824</v>
+        <v>0.004561930759485071</v>
       </c>
     </row>
     <row r="18">
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5469</v>
+        <v>5611</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001792896793310952</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009994393111764787</v>
+        <v>0.01025421838554738</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4945</v>
+        <v>4610</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0008982799714138881</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.004528239408939965</v>
+        <v>0.004221621983337219</v>
       </c>
     </row>
     <row r="19">
@@ -5575,19 +5575,19 @@
         <v>107996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>91341</v>
+        <v>89443</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129776</v>
+        <v>127589</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1981788336655737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1676171300551434</v>
+        <v>0.1641333145838956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2381477846977599</v>
+        <v>0.2341339171272867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -5596,19 +5596,19 @@
         <v>100042</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84698</v>
+        <v>83317</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118860</v>
+        <v>120369</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1828354592970188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1547923960815326</v>
+        <v>0.152269057228666</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2172264172568443</v>
+        <v>0.2199839888001026</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>190</v>
@@ -5617,19 +5617,19 @@
         <v>208038</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>181917</v>
+        <v>179943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236103</v>
+        <v>235755</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.190491472106002</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.166573542011049</v>
+        <v>0.1647664297828595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2161894278677154</v>
+        <v>0.2158708691552499</v>
       </c>
     </row>
     <row r="20">
@@ -5646,19 +5646,19 @@
         <v>435017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>413235</v>
+        <v>415727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>451901</v>
+        <v>454013</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7982841691668278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7583130227814304</v>
+        <v>0.7628854971189701</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8292669612344954</v>
+        <v>0.833142199054703</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>426</v>
@@ -5667,19 +5667,19 @@
         <v>443503</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>425374</v>
+        <v>423073</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>459903</v>
+        <v>460199</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8105374079782723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.77740551871204</v>
+        <v>0.7732007287330205</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8405110652193735</v>
+        <v>0.8410511250609622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>827</v>
@@ -5688,19 +5688,19 @@
         <v>878519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>851362</v>
+        <v>848836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>905272</v>
+        <v>905787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8044233061491332</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7795570417507002</v>
+        <v>0.7772439366726116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8289197534669022</v>
+        <v>0.8293914677404008</v>
       </c>
     </row>
     <row r="21">
@@ -5792,19 +5792,19 @@
         <v>12824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7093</v>
+        <v>7251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21968</v>
+        <v>22514</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00380358802093275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002103713746989199</v>
+        <v>0.002150740074721531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006515791441517444</v>
+        <v>0.006677809251641703</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -5813,19 +5813,19 @@
         <v>13557</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7461</v>
+        <v>7078</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23115</v>
+        <v>24038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003849737573557637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002118756663476091</v>
+        <v>0.002009997815384551</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.006563815407746171</v>
+        <v>0.006825790669467072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -5834,19 +5834,19 @@
         <v>26381</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17386</v>
+        <v>17143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38449</v>
+        <v>38774</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0038271654767427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00252229699844784</v>
+        <v>0.002486932336317369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005577930702040677</v>
+        <v>0.005624983798220202</v>
       </c>
     </row>
     <row r="23">
@@ -5863,19 +5863,19 @@
         <v>16421</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9854</v>
+        <v>8981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27356</v>
+        <v>26842</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004870633497216901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002922849503520137</v>
+        <v>0.002663938749982152</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008114058910411354</v>
+        <v>0.007961491845377453</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -5884,19 +5884,19 @@
         <v>29340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20129</v>
+        <v>20047</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41183</v>
+        <v>43552</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008331413725707311</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005715924745442164</v>
+        <v>0.005692433202705672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01169414222102002</v>
+        <v>0.01236708953428042</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -5905,19 +5905,19 @@
         <v>45761</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33428</v>
+        <v>32634</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>61710</v>
+        <v>61301</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006638719822309015</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004849464834094393</v>
+        <v>0.004734288466256488</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008952486738677533</v>
+        <v>0.008893071889806545</v>
       </c>
     </row>
     <row r="24">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6935</v>
+        <v>7280</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0005896736549891607</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.002057022170340719</v>
+        <v>0.002159268332569894</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -5955,19 +5955,19 @@
         <v>7629</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3122</v>
+        <v>3101</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15721</v>
+        <v>15589</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00216638903169475</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0008865386633589576</v>
+        <v>0.0008804937720250586</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.004464103875508403</v>
+        <v>0.004426687448667683</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -5976,19 +5976,19 @@
         <v>9617</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5069</v>
+        <v>4399</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18836</v>
+        <v>17861</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001395205561686292</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0007353314954896383</v>
+        <v>0.0006381430694540709</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002732555049359031</v>
+        <v>0.002591170982337624</v>
       </c>
     </row>
     <row r="25">
@@ -6005,19 +6005,19 @@
         <v>525675</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>486469</v>
+        <v>481842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>571559</v>
+        <v>574284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1559185901783079</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1442899384413537</v>
+        <v>0.1429174784774728</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1695281790439613</v>
+        <v>0.1703362927575632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>458</v>
@@ -6026,19 +6026,19 @@
         <v>479477</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>438487</v>
+        <v>436141</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>518611</v>
+        <v>520544</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1361519041583102</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1245123808257446</v>
+        <v>0.1238462352059513</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1472641868716564</v>
+        <v>0.147813208504599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>923</v>
@@ -6047,19 +6047,19 @@
         <v>1005152</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>934477</v>
+        <v>944988</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1066842</v>
+        <v>1068962</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1458199404701777</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1355669416448905</v>
+        <v>0.1370917472648876</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1547693617160544</v>
+        <v>0.1550770007431591</v>
       </c>
     </row>
     <row r="26">
@@ -6076,19 +6076,19 @@
         <v>2814563</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2766535</v>
+        <v>2768194</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2855332</v>
+        <v>2857434</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8348175146485532</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8205721611809222</v>
+        <v>0.8210642689547271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8469098131759212</v>
+        <v>0.8475331765395955</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2810</v>
@@ -6097,19 +6097,19 @@
         <v>2991632</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2949735</v>
+        <v>2944421</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3034678</v>
+        <v>3033898</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.84950055551073</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8376037058898544</v>
+        <v>0.8360946712204306</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8617238860167667</v>
+        <v>0.8615023659315386</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5524</v>
@@ -6118,19 +6118,19 @@
         <v>5806195</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5738524</v>
+        <v>5736652</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5874133</v>
+        <v>5867652</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8423189686690843</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8325017400483472</v>
+        <v>0.8322302549761436</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8521749854102306</v>
+        <v>0.8512346911288636</v>
       </c>
     </row>
     <row r="27">
@@ -6508,19 +6508,19 @@
         <v>19767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12160</v>
+        <v>11918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30849</v>
+        <v>31049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03432124607775338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02111369976512618</v>
+        <v>0.02069331895349937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05356351243052681</v>
+        <v>0.05391030020599401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -6529,19 +6529,19 @@
         <v>11110</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6745</v>
+        <v>6801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17090</v>
+        <v>16770</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01357287199589693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008240698825278215</v>
+        <v>0.008308827934636854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0208791575318435</v>
+        <v>0.0204880175674416</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -6550,19 +6550,19 @@
         <v>30877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21429</v>
+        <v>21879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41973</v>
+        <v>43754</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0221422282170732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0153672838063055</v>
+        <v>0.01568972830939035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03009983241313312</v>
+        <v>0.03137656572859816</v>
       </c>
     </row>
     <row r="6">
@@ -6579,19 +6579,19 @@
         <v>9025</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3495</v>
+        <v>3097</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19154</v>
+        <v>19433</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01567016149005421</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006067665826282094</v>
+        <v>0.005377744365742156</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03325748635425796</v>
+        <v>0.03374074957963327</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -6600,19 +6600,19 @@
         <v>13577</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7710</v>
+        <v>7415</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24734</v>
+        <v>25406</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01658644478146548</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009418770990228767</v>
+        <v>0.009058828003344342</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03021764983746546</v>
+        <v>0.03103882963231941</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -6621,19 +6621,19 @@
         <v>22602</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13299</v>
+        <v>13420</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37604</v>
+        <v>36154</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01620800751729059</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009537224431212511</v>
+        <v>0.009623951537808326</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02696663471633123</v>
+        <v>0.0259263683741859</v>
       </c>
     </row>
     <row r="7">
@@ -6650,19 +6650,19 @@
         <v>75934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58257</v>
+        <v>58802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97641</v>
+        <v>97441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1318447144624461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1011511840624322</v>
+        <v>0.1020987998088375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.169533778218152</v>
+        <v>0.1691877606196006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -6671,19 +6671,19 @@
         <v>60341</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48163</v>
+        <v>49570</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74367</v>
+        <v>73100</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07371813394497873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05884054123577401</v>
+        <v>0.06055926784451365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09085322442576849</v>
+        <v>0.08930518757175612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -6692,19 +6692,19 @@
         <v>136275</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114620</v>
+        <v>117576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159403</v>
+        <v>163893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09772518974645646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08219603792850651</v>
+        <v>0.08431543340189876</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1143105715545751</v>
+        <v>0.1175306517605215</v>
       </c>
     </row>
     <row r="8">
@@ -6721,19 +6721,19 @@
         <v>471210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448631</v>
+        <v>448978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491055</v>
+        <v>491123</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8181638779697467</v>
+        <v>0.8181638779697464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7789598296380366</v>
+        <v>0.7795625296782283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8526210836570222</v>
+        <v>0.8527386646155103</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1299</v>
@@ -6742,19 +6742,19 @@
         <v>733509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>717486</v>
+        <v>716826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>748555</v>
+        <v>745788</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8961225492776589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8765466802578704</v>
+        <v>0.8757404220213713</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9145036318987552</v>
+        <v>0.9111228941452452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1892</v>
@@ -6763,19 +6763,19 @@
         <v>1204719</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1176017</v>
+        <v>1173663</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1229397</v>
+        <v>1227665</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8639245745191798</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8433417054373571</v>
+        <v>0.8416533978237778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8816212178909347</v>
+        <v>0.8803792248058508</v>
       </c>
     </row>
     <row r="9">
@@ -6914,19 +6914,19 @@
         <v>38184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25323</v>
+        <v>26347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53452</v>
+        <v>57719</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01723190371553207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01142787248136394</v>
+        <v>0.01188989045665584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02412191361599684</v>
+        <v>0.02604783871266213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -6935,19 +6935,19 @@
         <v>35234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25564</v>
+        <v>25100</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47841</v>
+        <v>48209</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01628245433904488</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01181396150422197</v>
+        <v>0.01159959663428326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02210883906668153</v>
+        <v>0.02227876450666284</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -6956,19 +6956,19 @@
         <v>73418</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56794</v>
+        <v>57036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94232</v>
+        <v>93894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01676281540724934</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01296727667549486</v>
+        <v>0.01302264092663837</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02151529055285436</v>
+        <v>0.02143810736298114</v>
       </c>
     </row>
     <row r="12">
@@ -6985,19 +6985,19 @@
         <v>25409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13094</v>
+        <v>13588</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46293</v>
+        <v>46882</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0114664686137393</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005909192908952418</v>
+        <v>0.006132264232837971</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02089139422770326</v>
+        <v>0.0211570340598221</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -7006,19 +7006,19 @@
         <v>11940</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7186</v>
+        <v>6846</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19008</v>
+        <v>19250</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005517683760615049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003320853849799765</v>
+        <v>0.003163651045042394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.008784144970146108</v>
+        <v>0.008895921270015201</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -7027,19 +7027,19 @@
         <v>37348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23693</v>
+        <v>24563</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56687</v>
+        <v>59922</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008527390983908829</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005409570782124166</v>
+        <v>0.00560825099037877</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01294280539035301</v>
+        <v>0.01368144068459092</v>
       </c>
     </row>
     <row r="13">
@@ -7056,19 +7056,19 @@
         <v>324612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287826</v>
+        <v>286532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>363553</v>
+        <v>369620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1464923766445265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1298916223775649</v>
+        <v>0.1293075677720935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640657481843995</v>
+        <v>0.1668039441015332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -7077,19 +7077,19 @@
         <v>318148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>284340</v>
+        <v>286418</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>352538</v>
+        <v>352857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1470253569147968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1314016489386714</v>
+        <v>0.1323620929517049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1629182554304009</v>
+        <v>0.1630656123291834</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>588</v>
@@ -7098,19 +7098,19 @@
         <v>642759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>589278</v>
+        <v>593028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>694343</v>
+        <v>698411</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1467557027570299</v>
+        <v>0.14675570275703</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1345448416766714</v>
+        <v>0.1354008513482481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1585333571691978</v>
+        <v>0.1594620486416278</v>
       </c>
     </row>
     <row r="14">
@@ -7127,19 +7127,19 @@
         <v>1827692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1783663</v>
+        <v>1778683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1868165</v>
+        <v>1868342</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8248092510262021</v>
+        <v>0.8248092510262023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8049396070050443</v>
+        <v>0.8026921747940892</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8430738852246432</v>
+        <v>0.8431538747407663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2513</v>
@@ -7148,19 +7148,19 @@
         <v>1798575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1762949</v>
+        <v>1760606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1833755</v>
+        <v>1833142</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8311745049855432</v>
+        <v>0.8311745049855431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8147107457369315</v>
+        <v>0.8136279510484956</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8474320303250872</v>
+        <v>0.847148705423585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4203</v>
@@ -7169,19 +7169,19 @@
         <v>3626267</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3569315</v>
+        <v>3567255</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3681297</v>
+        <v>3679678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8279540908518119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8149508548942862</v>
+        <v>0.8144804638540035</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8405186092577936</v>
+        <v>0.8401491227696617</v>
       </c>
     </row>
     <row r="15">
@@ -7320,19 +7320,19 @@
         <v>5638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2177</v>
+        <v>2411</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11222</v>
+        <v>11536</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.007995989417029073</v>
+        <v>0.007995989417029071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003088191817803428</v>
+        <v>0.00341947255395136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01591709891831929</v>
+        <v>0.01636186036109086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -7341,19 +7341,19 @@
         <v>8872</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4738</v>
+        <v>4481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17772</v>
+        <v>16991</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01215373549314374</v>
+        <v>0.01215373549314373</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006490274240984673</v>
+        <v>0.006138743420964997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02434473152140998</v>
+        <v>0.02327470908203873</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -7362,19 +7362,19 @@
         <v>14510</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8552</v>
+        <v>7900</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24322</v>
+        <v>23532</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01011100502485887</v>
+        <v>0.01011100502485886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00595940238828359</v>
+        <v>0.005505264810862911</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0169483942352072</v>
+        <v>0.01639813531404945</v>
       </c>
     </row>
     <row r="18">
@@ -7391,19 +7391,19 @@
         <v>4661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14103</v>
+        <v>16305</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006611004198792529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001053985101825556</v>
+        <v>0.00105979639821965</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.020003012109111</v>
+        <v>0.02312552775498913</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -7412,19 +7412,19 @@
         <v>3179</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>907</v>
+        <v>1144</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7446</v>
+        <v>7234</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004354932928639498</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001242368242887868</v>
+        <v>0.001567017174880367</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01020047149169846</v>
+        <v>0.009909358483875995</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -7433,19 +7433,19 @@
         <v>7840</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3357</v>
+        <v>3062</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17770</v>
+        <v>17399</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.005463356925150212</v>
+        <v>0.005463356925150211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002339032513873788</v>
+        <v>0.002133767984737193</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01238271091554299</v>
+        <v>0.01212432657454306</v>
       </c>
     </row>
     <row r="19">
@@ -7462,19 +7462,19 @@
         <v>90969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72752</v>
+        <v>72595</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112055</v>
+        <v>110622</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1290239882803617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1031855378870444</v>
+        <v>0.1029628705009689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1589308015966248</v>
+        <v>0.1568977858975322</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -7483,19 +7483,19 @@
         <v>77221</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62426</v>
+        <v>63070</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94294</v>
+        <v>95200</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.105780685518416</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08551475034680406</v>
+        <v>0.08639665009591187</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1291679864268769</v>
+        <v>0.1304099822158698</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -7504,19 +7504,19 @@
         <v>168190</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>143444</v>
+        <v>143551</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>197089</v>
+        <v>196704</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1172002868760259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0999566631295675</v>
+        <v>0.1000312015664754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1373379231727954</v>
+        <v>0.1370700776069408</v>
       </c>
     </row>
     <row r="20">
@@ -7533,19 +7533,19 @@
         <v>603789</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>582294</v>
+        <v>582514</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>623304</v>
+        <v>623272</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8563690181038167</v>
+        <v>0.8563690181038165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8258817195366513</v>
+        <v>0.8261942834705395</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8840470393056253</v>
+        <v>0.8840029858750745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>895</v>
@@ -7554,19 +7554,19 @@
         <v>640735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>623018</v>
+        <v>621390</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>656905</v>
+        <v>655947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8777106460598006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.853441528193005</v>
+        <v>0.8512112211970243</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8998612979770623</v>
+        <v>0.8985486903863588</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1486</v>
@@ -7575,19 +7575,19 @@
         <v>1244524</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1213989</v>
+        <v>1214111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1270767</v>
+        <v>1271851</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8672253511739652</v>
+        <v>0.867225351173965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8459475948651046</v>
+        <v>0.8460325498396583</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.88551218313563</v>
+        <v>0.8862679254922514</v>
       </c>
     </row>
     <row r="21">
@@ -7726,19 +7726,19 @@
         <v>63589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>48036</v>
+        <v>48560</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82391</v>
+        <v>83406</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01818432781170564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01373676199591363</v>
+        <v>0.01388673488135332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02356125248649547</v>
+        <v>0.02385141631809319</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>72</v>
@@ -7747,19 +7747,19 @@
         <v>55216</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>42689</v>
+        <v>43894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70060</v>
+        <v>70851</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01487316901907407</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01149877339785339</v>
+        <v>0.01182344816053143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01887172882824379</v>
+        <v>0.01908476100187149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>132</v>
@@ -7768,19 +7768,19 @@
         <v>118804</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>98767</v>
+        <v>98412</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>142981</v>
+        <v>142702</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01647924875522454</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0136999164774932</v>
+        <v>0.01365068422467973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0198328095272118</v>
+        <v>0.01979407262734795</v>
       </c>
     </row>
     <row r="24">
@@ -7797,19 +7797,19 @@
         <v>39095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24522</v>
+        <v>23474</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60366</v>
+        <v>62612</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.01117983636068366</v>
+        <v>0.01117983636068365</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007012398122329727</v>
+        <v>0.006712940555811539</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01726263113700503</v>
+        <v>0.01790504620246832</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -7818,19 +7818,19 @@
         <v>28695</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20046</v>
+        <v>19838</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43761</v>
+        <v>42010</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.007729538426792837</v>
+        <v>0.007729538426792836</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005399696083282703</v>
+        <v>0.005343556161250504</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01178755621331133</v>
+        <v>0.01131613163301511</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>59</v>
@@ -7839,19 +7839,19 @@
         <v>67790</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50131</v>
+        <v>48421</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>94403</v>
+        <v>91647</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.009403107694336107</v>
+        <v>0.00940310769433611</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006953652862850454</v>
+        <v>0.006716400272054784</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01309450014277163</v>
+        <v>0.01271228336753352</v>
       </c>
     </row>
     <row r="25">
@@ -7868,19 +7868,19 @@
         <v>491515</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>444705</v>
+        <v>444841</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>535488</v>
+        <v>543218</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1405578658028196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1271715943447087</v>
+        <v>0.1272104627525396</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1531325464222287</v>
+        <v>0.1553430933431183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>517</v>
@@ -7889,19 +7889,19 @@
         <v>455709</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>418139</v>
+        <v>416973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>497777</v>
+        <v>498951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1227519441413142</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1126317241257036</v>
+        <v>0.1123178489840637</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1340835605665926</v>
+        <v>0.1343998684324133</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>912</v>
@@ -7910,19 +7910,19 @@
         <v>947225</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>886462</v>
+        <v>882736</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1010809</v>
+        <v>1007460</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1313887180790867</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1229603346119648</v>
+        <v>0.1224436090861566</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1402084644983779</v>
+        <v>0.1397439825800048</v>
       </c>
     </row>
     <row r="26">
@@ -7939,19 +7939,19 @@
         <v>2902691</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2853212</v>
+        <v>2848969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2952006</v>
+        <v>2958301</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8300779700247911</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.815928468069103</v>
+        <v>0.8147150239463156</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8441804244977741</v>
+        <v>0.8459806055455771</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4707</v>
@@ -7960,19 +7960,19 @@
         <v>3172820</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3128082</v>
+        <v>3129426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3213263</v>
+        <v>3215761</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8546453484128187</v>
+        <v>0.8546453484128188</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8425946476914095</v>
+        <v>0.8429566439660064</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8655392772330629</v>
+        <v>0.8662123571222454</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7581</v>
@@ -7981,19 +7981,19 @@
         <v>6075511</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6005859</v>
+        <v>6006603</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6139367</v>
+        <v>6138639</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8427289254713526</v>
+        <v>0.8427289254713528</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8330675316977793</v>
+        <v>0.8331708347380744</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8515863039354635</v>
+        <v>0.8514854348570046</v>
       </c>
     </row>
     <row r="27">
